--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-26/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-26/curvature_data.xlsx
@@ -379,240 +379,240 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>55793.511131</v>
+        <v>55617.579123</v>
       </c>
       <c r="B2">
-        <v>0.00011246493901</v>
+        <v>-3.3785073739e-05</v>
       </c>
       <c r="C2">
-        <v>-3.74329016e-05</v>
+        <v>-3.4233088382e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0001522736797</v>
+        <v>-3.5547625495e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>55696.247126</v>
+        <v>55627.179123</v>
       </c>
       <c r="B3">
-        <v>-1.1075398442e-05</v>
+        <v>5.6146309573e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00047495494022</v>
+        <v>-5.3360660725e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00067650944629</v>
+        <v>-0.00015565684416</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>55758.647129</v>
+        <v>55641.515124</v>
       </c>
       <c r="B4">
-        <v>4.2782309766e-05</v>
+        <v>3.9372953831e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00027379534377</v>
+        <v>-0.00012750930293</v>
       </c>
       <c r="D4">
-        <v>-0.00040335559164</v>
+        <v>-0.00024071280345</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>55641.515124</v>
+        <v>55654.847124</v>
       </c>
       <c r="B5">
-        <v>3.9372953831e-05</v>
+        <v>5.8960205559e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00012750930293</v>
+        <v>-0.00020668823093</v>
       </c>
       <c r="D5">
-        <v>-0.00024071280345</v>
+        <v>-0.00032304984252</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>55713.647127</v>
+        <v>55665.247125</v>
       </c>
       <c r="B6">
-        <v>-3.8888324803e-05</v>
+        <v>3.8185058127e-05</v>
       </c>
       <c r="C6">
-        <v>-0.0005396725191500001</v>
+        <v>-0.00028128276838</v>
       </c>
       <c r="D6">
-        <v>-0.00076411326244</v>
+        <v>-0.00040301201443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>55770.57913</v>
+        <v>55675.847125</v>
       </c>
       <c r="B7">
-        <v>5.1969679337e-05</v>
+        <v>3.8477679407e-05</v>
       </c>
       <c r="C7">
-        <v>-0.00020552745288</v>
+        <v>-0.00033943177956</v>
       </c>
       <c r="D7">
-        <v>-0.00031290882561</v>
+        <v>-0.00049995194572</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>55783.911131</v>
+        <v>55686.847126</v>
       </c>
       <c r="B8">
-        <v>5.2346438152e-05</v>
+        <v>2.6467969187e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00012389408499</v>
+        <v>-0.00040001914734</v>
       </c>
       <c r="D8">
-        <v>-0.00023493989732</v>
+        <v>-0.00059362899758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>55665.247125</v>
+        <v>55696.247126</v>
       </c>
       <c r="B9">
-        <v>3.8185058127e-05</v>
+        <v>-1.1075398442e-05</v>
       </c>
       <c r="C9">
-        <v>-0.00028128276838</v>
+        <v>-0.00047495494022</v>
       </c>
       <c r="D9">
-        <v>-0.00040301201443</v>
+        <v>-0.00067650944629</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>55617.579123</v>
+        <v>55713.647127</v>
       </c>
       <c r="B10">
-        <v>-3.3785073739e-05</v>
+        <v>-3.8888324803e-05</v>
       </c>
       <c r="C10">
-        <v>-3.4233088382e-05</v>
+        <v>-0.0005396725191500001</v>
       </c>
       <c r="D10">
-        <v>-3.5547625495e-05</v>
+        <v>-0.00076411326244</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>55805.047132</v>
+        <v>55722.847128</v>
       </c>
       <c r="B11">
-        <v>-2.2006580599e-05</v>
+        <v>-1.4270919945e-05</v>
       </c>
       <c r="C11">
-        <v>-2.511100912e-05</v>
+        <v>-0.00045970124519</v>
       </c>
       <c r="D11">
-        <v>-3.4297966887e-05</v>
+        <v>-0.00068791475164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>55627.179123</v>
+        <v>55737.979128</v>
       </c>
       <c r="B12">
-        <v>5.6146309573e-05</v>
+        <v>1.2952640817e-05</v>
       </c>
       <c r="C12">
-        <v>-5.3360660725e-05</v>
+        <v>-0.00040090468852</v>
       </c>
       <c r="D12">
-        <v>-0.00015565684416</v>
+        <v>-0.0005919686825200001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>55737.979128</v>
+        <v>55747.847129</v>
       </c>
       <c r="B13">
-        <v>1.2952640817e-05</v>
+        <v>2.3094003847e-05</v>
       </c>
       <c r="C13">
-        <v>-0.00040090468852</v>
+        <v>-0.00034055764927</v>
       </c>
       <c r="D13">
-        <v>-0.0005919686825200001</v>
+        <v>-0.00049647011508</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>55747.847129</v>
+        <v>55758.647129</v>
       </c>
       <c r="B14">
-        <v>2.3094003847e-05</v>
+        <v>4.2782309766e-05</v>
       </c>
       <c r="C14">
-        <v>-0.00034055764927</v>
+        <v>-0.00027379534377</v>
       </c>
       <c r="D14">
-        <v>-0.00049647011508</v>
+        <v>-0.00040335559164</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>55686.847126</v>
+        <v>55770.57913</v>
       </c>
       <c r="B15">
-        <v>2.6467969187e-05</v>
+        <v>5.1969679337e-05</v>
       </c>
       <c r="C15">
-        <v>-0.00040001914734</v>
+        <v>-0.00020552745288</v>
       </c>
       <c r="D15">
-        <v>-0.00059362899758</v>
+        <v>-0.00031290882561</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>55654.847124</v>
+        <v>55783.911131</v>
       </c>
       <c r="B16">
-        <v>5.8960205559e-05</v>
+        <v>5.2346438152e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00020668823093</v>
+        <v>-0.00012389408499</v>
       </c>
       <c r="D16">
-        <v>-0.00032304984252</v>
+        <v>-0.00023493989732</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>55722.847128</v>
+        <v>55793.511131</v>
       </c>
       <c r="B17">
-        <v>-1.4270919945e-05</v>
+        <v>0.00011246493901</v>
       </c>
       <c r="C17">
-        <v>-0.00045970124519</v>
+        <v>-3.74329016e-05</v>
       </c>
       <c r="D17">
-        <v>-0.00068791475164</v>
+        <v>-0.0001522736797</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>55675.847125</v>
+        <v>55805.047132</v>
       </c>
       <c r="B18">
-        <v>3.8477679407e-05</v>
+        <v>-2.2006580599e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00033943177956</v>
+        <v>-2.511100912e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00049995194572</v>
+        <v>-3.4297966887e-05</v>
       </c>
     </row>
   </sheetData>
